--- a/data/scores.xlsx
+++ b/data/scores.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Daniel/Programming Projects/DS-4S/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B92722-2070-004D-9B41-D2AE625B0E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283ABC36-FE1B-1B46-9C1D-6845C82EE3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="data" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$50</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -241,13 +244,13 @@
     <t>null</t>
   </si>
   <si>
-    <t>Jordan and Saudi Arabia</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
     <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
   </si>
 </sst>
 </file>
@@ -1101,9 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1230,7 +1231,7 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str" cm="1">
         <f t="array" ref="A21">"{" &amp; _xlfn.TEXTJOIN({": '","', "},TRUE,TRANSPOSE(_xlfn.VSTACK(SUBSTITUTE(LOWER(data!$1:$1),"–","-"),TRIM(data!22:22)))) &amp; "'},"</f>
-        <v>{country: 'Jordan and Saudi Arabia', all_domain_score: '-15.81039', all_domain_rank: '37', community_score: '-1.756504', community_rank: '40', edu_score: '-5.655413', edu_rank: '43', health_score: '-4.534724', health_rank: '35', indep_score: '-1.527648', indep_rank: '27', policy_score: '-3.241877', policy_rank: '45'},</v>
+        <v>{country: 'Saudi Arabia', all_domain_score: '-15.81039', all_domain_rank: '37', community_score: '-1.756504', community_rank: '40', edu_score: '-5.655413', edu_rank: '43', health_score: '-4.534724', health_rank: '35', indep_score: '-1.527648', indep_rank: '27', policy_score: '-3.241877', policy_rank: '45'},</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -1408,6 +1409,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1416,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2285,7 +2287,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>-15.81039</v>
@@ -2818,7 +2820,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35">
         <v>20.84488</v>
@@ -2859,7 +2861,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36">
         <v>-5.8718649999999997</v>
